--- a/biology/Médecine/Thérèse_King/Thérèse_King.xlsx
+++ b/biology/Médecine/Thérèse_King/Thérèse_King.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_King</t>
+          <t>Thérèse_King</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thérèse King, née le 15 juillet 1934 à Ziguinchor[1] et décédée en 16 avril 2015 à Dakar[2], est une femme politique sénégalaise. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thérèse King, née le 15 juillet 1934 à Ziguinchor et décédée en 16 avril 2015 à Dakar, est une femme politique sénégalaise. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_King</t>
+          <t>Thérèse_King</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thèrese King est ministre de la Santé publique entre le 5 avril 1988 et le 27 mars 1990, sous la présidence d'Abdou Diouf[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thèrese King est ministre de la Santé publique entre le 5 avril 1988 et le 27 mars 1990, sous la présidence d'Abdou Diouf. 
 Elle fut l'une des premières femmes de son pays à accéder à un portefeuille ministériel, et la seconde à détenir celui de la Santé après Marie Sarr Mbodj.
-Elle fut aussi présidente de l'Union régionale des femmes socialistes de Ziguinchor[4].
-En 2010, Thérèse King est élevée à la dignité de Grand Croix dans l'ordre national du Lion[1].
+Elle fut aussi présidente de l'Union régionale des femmes socialistes de Ziguinchor.
+En 2010, Thérèse King est élevée à la dignité de Grand Croix dans l'ordre national du Lion.
 </t>
         </is>
       </c>
